--- a/templates/Contact_List.xlsx
+++ b/templates/Contact_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitRepository\git\Consulting.Project.Tools\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B96C879-5EBC-49EC-83B7-E097CD93EC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0743B33E-777D-4334-B82E-97274460E7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Last Name</t>
   </si>
@@ -61,13 +61,28 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>LinkedIn Link</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State/Province</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Time Zone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +94,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,15 +145,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,17 +435,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="29.85546875" style="2" customWidth="1"/>
@@ -429,9 +455,14 @@
     <col min="10" max="10" width="21.5703125" style="2" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" style="2" customWidth="1"/>
     <col min="12" max="12" width="54.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,6 +499,27 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
